--- a/다이어트/다이어트 테이블명세(2021-05-12).xlsx
+++ b/다이어트/다이어트 테이블명세(2021-05-12).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="식품정보" sheetId="2" r:id="rId1"/>
@@ -4472,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5779,7 +5779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
